--- a/報表/工人收錢.xlsx
+++ b/報表/工人收錢.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李承叡\Desktop\大學作業\迎新宿營\收錢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33F9507-F65C-43BF-9D11-C19B75F61B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C2220-E7F6-4939-94CF-F5F5551BF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <f>SUM(E3:E28)</f>
+        <v>26000</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1273,7 +1276,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1">
         <f>SUM(E3:E56)</f>
-        <v>26000</v>
+        <v>52000</v>
       </c>
     </row>
   </sheetData>

--- a/報表/工人收錢.xlsx
+++ b/報表/工人收錢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C2220-E7F6-4939-94CF-F5F5551BF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7652DF-45E3-4B6F-A789-66976D902141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1034,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1276,11 +1278,12 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1">
         <f>SUM(E3:E56)</f>
-        <v>52000</v>
+        <v>53000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>